--- a/database/industries/ghaza/gheshahdab/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC986B-CEAB-40FF-A862-2A16038FEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشهداب-کشت و صنعت شهداب ناب خراسان</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,10 +61,10 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>گروه رب</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>گروه سس</t>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +377,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -388,7 +389,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -435,6 +436,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,6 +488,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,17 +656,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -641,7 +676,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +688,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -665,7 +700,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -675,7 +710,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -687,7 +722,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -699,7 +734,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -709,7 +744,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -731,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -741,7 +776,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -753,7 +788,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -762,46 +797,46 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>320</v>
-      </c>
-      <c r="F11" s="11">
         <v>553</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="H11" s="11">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="I11" s="11">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>5623</v>
+        <v>5418</v>
       </c>
       <c r="F12" s="13">
-        <v>5418</v>
-      </c>
-      <c r="G12" s="13">
         <v>3948</v>
       </c>
+      <c r="G12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -810,22 +845,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1973</v>
+        <v>2965</v>
       </c>
       <c r="F13" s="11">
-        <v>2965</v>
-      </c>
-      <c r="G13" s="11">
         <v>3623</v>
       </c>
+      <c r="G13" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -834,22 +869,22 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
       </c>
       <c r="H14" s="13">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="I14" s="13">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -858,22 +893,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -882,22 +917,22 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G16" s="13">
+        <v>2217</v>
       </c>
       <c r="H16" s="13">
-        <v>2217</v>
+        <v>2198</v>
       </c>
       <c r="I16" s="13">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -906,44 +941,44 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1467</v>
       </c>
       <c r="H17" s="11">
-        <v>1467</v>
+        <v>2611</v>
       </c>
       <c r="I17" s="11">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>7916</v>
+        <v>8936</v>
       </c>
       <c r="F18" s="15">
-        <v>8936</v>
+        <v>7571</v>
       </c>
       <c r="G18" s="15">
-        <v>7744</v>
+        <v>3791</v>
       </c>
       <c r="H18" s="15">
-        <v>3791</v>
+        <v>5176</v>
       </c>
       <c r="I18" s="15">
-        <v>5176</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9051</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>21</v>
       </c>
@@ -955,7 +990,7 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>22</v>
       </c>
@@ -977,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
@@ -989,7 +1024,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
@@ -997,33 +1032,33 @@
         <v>12</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="E22" s="11">
         <v>1250</v>
       </c>
-      <c r="G22" s="11">
-        <v>0</v>
+      <c r="F22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F23" s="15">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="G23" s="15">
         <v>0</v>
@@ -1035,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
@@ -1044,32 +1079,32 @@
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15">
-        <v>0</v>
+      <c r="E25" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -1081,29 +1116,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
-        <v>7916</v>
+        <v>10186</v>
       </c>
       <c r="F26" s="19">
-        <v>10186</v>
+        <v>7571</v>
       </c>
       <c r="G26" s="19">
-        <v>7744</v>
+        <v>3791</v>
       </c>
       <c r="H26" s="19">
-        <v>3791</v>
+        <v>5176</v>
       </c>
       <c r="I26" s="19">
-        <v>5176</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9051</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1113,7 +1148,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1123,7 +1158,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1133,7 +1168,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>30</v>
       </c>
@@ -1155,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1165,7 +1200,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>31</v>
       </c>
@@ -1177,7 +1212,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>11</v>
       </c>
@@ -1186,46 +1221,46 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>8365</v>
-      </c>
-      <c r="F33" s="11">
         <v>16163</v>
       </c>
+      <c r="F33" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="11">
-        <v>5614</v>
+        <v>3751</v>
       </c>
       <c r="H33" s="11">
-        <v>3751</v>
+        <v>5092</v>
       </c>
       <c r="I33" s="11">
-        <v>5092</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15889</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>994742</v>
+        <v>1330194</v>
       </c>
       <c r="F34" s="13">
-        <v>1330194</v>
-      </c>
-      <c r="G34" s="13">
         <v>1027243</v>
       </c>
+      <c r="G34" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
@@ -1234,22 +1269,22 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>324501</v>
+        <v>506457</v>
       </c>
       <c r="F35" s="11">
-        <v>506457</v>
-      </c>
-      <c r="G35" s="11">
         <v>784004</v>
       </c>
+      <c r="G35" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>16</v>
       </c>
@@ -1258,22 +1293,22 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
       </c>
       <c r="H36" s="13">
-        <v>0</v>
+        <v>59540</v>
       </c>
       <c r="I36" s="13">
-        <v>59540</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>666003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>17</v>
       </c>
@@ -1282,22 +1317,22 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>18</v>
       </c>
@@ -1306,22 +1341,22 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G38" s="13">
+        <v>709072</v>
       </c>
       <c r="H38" s="13">
-        <v>709072</v>
+        <v>959914</v>
       </c>
       <c r="I38" s="13">
-        <v>959914</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1256192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>19</v>
       </c>
@@ -1330,44 +1365,44 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G39" s="11">
+        <v>516009</v>
       </c>
       <c r="H39" s="11">
-        <v>516009</v>
+        <v>1054881</v>
       </c>
       <c r="I39" s="11">
-        <v>1054881</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1094169</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>1327608</v>
+        <v>1852814</v>
       </c>
       <c r="F40" s="15">
-        <v>1852814</v>
+        <v>1811247</v>
       </c>
       <c r="G40" s="15">
-        <v>1816861</v>
+        <v>1228832</v>
       </c>
       <c r="H40" s="15">
-        <v>1228832</v>
+        <v>2079427</v>
       </c>
       <c r="I40" s="15">
-        <v>2079427</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3032253</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>33</v>
       </c>
@@ -1379,7 +1414,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>22</v>
       </c>
@@ -1401,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>34</v>
       </c>
@@ -1413,7 +1448,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>24</v>
       </c>
@@ -1421,33 +1456,33 @@
         <v>32</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="11">
+      <c r="E44" s="11">
         <v>27507</v>
       </c>
-      <c r="G44" s="11">
-        <v>0</v>
+      <c r="F44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>0</v>
+        <v>27507</v>
       </c>
       <c r="F45" s="15">
-        <v>27507</v>
+        <v>0</v>
       </c>
       <c r="G45" s="15">
         <v>0</v>
@@ -1459,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>26</v>
       </c>
@@ -1468,22 +1503,22 @@
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>28</v>
       </c>
@@ -1491,11 +1526,11 @@
         <v>32</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="15">
-        <v>0</v>
+      <c r="E47" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" s="15">
         <v>0</v>
@@ -1507,29 +1542,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>1327608</v>
+        <v>1880321</v>
       </c>
       <c r="F48" s="19">
-        <v>1880321</v>
+        <v>1811247</v>
       </c>
       <c r="G48" s="19">
-        <v>1816861</v>
+        <v>1228832</v>
       </c>
       <c r="H48" s="19">
-        <v>1228832</v>
+        <v>2079427</v>
       </c>
       <c r="I48" s="19">
-        <v>2079427</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3032253</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1539,7 +1574,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1549,7 +1584,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1559,7 +1594,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>35</v>
       </c>
@@ -1581,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1591,7 +1626,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>36</v>
       </c>
@@ -1603,7 +1638,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1612,46 +1647,46 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>26140625</v>
+        <v>29227848</v>
       </c>
       <c r="F55" s="11">
-        <v>29227848</v>
+        <v>32450867</v>
       </c>
       <c r="G55" s="11">
-        <v>32450867</v>
+        <v>35056075</v>
       </c>
       <c r="H55" s="11">
-        <v>35056075</v>
+        <v>42082645</v>
       </c>
       <c r="I55" s="11">
-        <v>42082645</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40533163</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>176905922</v>
+        <v>245513843</v>
       </c>
       <c r="F56" s="13">
-        <v>245513843</v>
-      </c>
-      <c r="G56" s="13">
         <v>260193262</v>
       </c>
+      <c r="G56" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>15</v>
       </c>
@@ -1660,22 +1695,22 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>164470857</v>
+        <v>170811804</v>
       </c>
       <c r="F57" s="11">
-        <v>170811804</v>
-      </c>
-      <c r="G57" s="11">
         <v>216396357</v>
       </c>
+      <c r="G57" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>16</v>
       </c>
@@ -1684,22 +1719,22 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H58" s="13">
+        <v>242032520</v>
       </c>
       <c r="I58" s="13">
-        <v>242032520</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>258742424</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>17</v>
       </c>
@@ -1708,22 +1743,22 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>18</v>
       </c>
@@ -1732,22 +1767,22 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G60" s="13">
+        <v>319834010</v>
       </c>
       <c r="H60" s="13">
-        <v>319834010</v>
+        <v>436721565</v>
       </c>
       <c r="I60" s="13">
-        <v>436721565</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>425683497</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>19</v>
       </c>
@@ -1756,22 +1791,22 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G61" s="11">
+        <v>351744376</v>
       </c>
       <c r="H61" s="11">
-        <v>351744376</v>
+        <v>404014171</v>
       </c>
       <c r="I61" s="11">
-        <v>404014171</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>349128590</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>38</v>
       </c>
@@ -1783,7 +1818,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>24</v>
       </c>
@@ -1792,22 +1827,22 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1817,7 +1852,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1827,7 +1862,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1837,7 +1872,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>39</v>
       </c>
@@ -1859,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1869,7 +1904,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>40</v>
       </c>
@@ -1881,7 +1916,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>11</v>
       </c>
@@ -1890,46 +1925,46 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>-7883</v>
+        <v>-15358</v>
       </c>
       <c r="F70" s="11">
-        <v>-15358</v>
+        <v>-3916</v>
       </c>
       <c r="G70" s="11">
-        <v>-3916</v>
+        <v>-3699</v>
       </c>
       <c r="H70" s="11">
-        <v>-3699</v>
+        <v>-5017</v>
       </c>
       <c r="I70" s="11">
-        <v>-5017</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-15731</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>-544423</v>
+        <v>-1061478</v>
       </c>
       <c r="F71" s="13">
-        <v>-1061478</v>
-      </c>
-      <c r="G71" s="13">
         <v>-839161</v>
       </c>
+      <c r="G71" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>15</v>
       </c>
@@ -1938,22 +1973,22 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>-269461</v>
+        <v>-430520</v>
       </c>
       <c r="F72" s="11">
-        <v>-430520</v>
-      </c>
-      <c r="G72" s="11">
         <v>-615472</v>
       </c>
+      <c r="G72" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>16</v>
       </c>
@@ -1962,22 +1997,22 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G73" s="13">
+        <v>0</v>
       </c>
       <c r="H73" s="13">
-        <v>0</v>
+        <v>-50032</v>
       </c>
       <c r="I73" s="13">
-        <v>-50032</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-604656</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>17</v>
       </c>
@@ -1986,22 +2021,22 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>18</v>
       </c>
@@ -2010,22 +2045,22 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G75" s="13">
+        <v>-519457</v>
       </c>
       <c r="H75" s="13">
-        <v>-519457</v>
+        <v>-819189</v>
       </c>
       <c r="I75" s="13">
-        <v>-819189</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1128308</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>19</v>
       </c>
@@ -2034,44 +2069,44 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G76" s="11">
+        <v>-365805</v>
       </c>
       <c r="H76" s="11">
-        <v>-365805</v>
+        <v>-867297</v>
       </c>
       <c r="I76" s="11">
-        <v>-867297</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1012739</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>-821767</v>
+        <v>-1507356</v>
       </c>
       <c r="F77" s="15">
-        <v>-1507356</v>
+        <v>-1458549</v>
       </c>
       <c r="G77" s="15">
-        <v>-1458549</v>
+        <v>-888961</v>
       </c>
       <c r="H77" s="15">
-        <v>-888961</v>
+        <v>-1741535</v>
       </c>
       <c r="I77" s="15">
-        <v>-1741535</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2761434</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="16" t="s">
         <v>42</v>
       </c>
@@ -2083,7 +2118,7 @@
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="18" t="s">
         <v>43</v>
       </c>
@@ -2105,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>44</v>
       </c>
@@ -2117,7 +2152,7 @@
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>24</v>
       </c>
@@ -2125,36 +2160,36 @@
         <v>32</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>14</v>
+      <c r="E81" s="11">
+        <v>-17880</v>
       </c>
       <c r="F81" s="11">
-        <v>-17880</v>
-      </c>
-      <c r="G81" s="11">
         <v>8022</v>
       </c>
+      <c r="G81" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>0</v>
+        <v>-17880</v>
       </c>
       <c r="F82" s="15">
-        <v>-17880</v>
+        <v>8022</v>
       </c>
       <c r="G82" s="15">
-        <v>8022</v>
+        <v>0</v>
       </c>
       <c r="H82" s="15">
         <v>0</v>
@@ -2163,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>26</v>
       </c>
@@ -2172,22 +2207,22 @@
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>28</v>
       </c>
@@ -2195,11 +2230,11 @@
         <v>32</v>
       </c>
       <c r="D84" s="15"/>
-      <c r="E84" s="15">
-        <v>0</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>14</v>
+      <c r="E84" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="15">
+        <v>0</v>
       </c>
       <c r="G84" s="15">
         <v>0</v>
@@ -2211,29 +2246,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
-        <v>-821767</v>
+        <v>-1525236</v>
       </c>
       <c r="F85" s="19">
-        <v>-1525236</v>
+        <v>-1450527</v>
       </c>
       <c r="G85" s="19">
-        <v>-1450527</v>
+        <v>-888961</v>
       </c>
       <c r="H85" s="19">
-        <v>-888961</v>
+        <v>-1741535</v>
       </c>
       <c r="I85" s="19">
-        <v>-1741535</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2761434</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2243,7 +2278,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2253,7 +2288,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2263,7 +2298,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>46</v>
       </c>
@@ -2285,7 +2320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2295,7 +2330,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>47</v>
       </c>
@@ -2307,7 +2342,7 @@
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>11</v>
       </c>
@@ -2316,46 +2351,46 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>482</v>
+        <v>805</v>
       </c>
       <c r="F92" s="11">
-        <v>805</v>
+        <v>1698</v>
       </c>
       <c r="G92" s="11">
-        <v>1698</v>
+        <v>52</v>
       </c>
       <c r="H92" s="11">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I92" s="11">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
-        <v>450319</v>
+        <v>268716</v>
       </c>
       <c r="F93" s="13">
-        <v>268716</v>
-      </c>
-      <c r="G93" s="13">
         <v>188082</v>
       </c>
+      <c r="G93" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>15</v>
       </c>
@@ -2364,22 +2399,22 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>55040</v>
+        <v>75937</v>
       </c>
       <c r="F94" s="11">
-        <v>75937</v>
-      </c>
-      <c r="G94" s="11">
         <v>168532</v>
       </c>
+      <c r="G94" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>16</v>
       </c>
@@ -2388,22 +2423,22 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G95" s="13">
+        <v>0</v>
       </c>
       <c r="H95" s="13">
-        <v>0</v>
+        <v>9508</v>
       </c>
       <c r="I95" s="13">
-        <v>9508</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61347</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>17</v>
       </c>
@@ -2412,22 +2447,22 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>18</v>
       </c>
@@ -2436,22 +2471,22 @@
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G97" s="13">
+        <v>189615</v>
       </c>
       <c r="H97" s="13">
-        <v>189615</v>
+        <v>140725</v>
       </c>
       <c r="I97" s="13">
-        <v>140725</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127884</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>19</v>
       </c>
@@ -2460,44 +2495,44 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="G98" s="11">
+        <v>150204</v>
       </c>
       <c r="H98" s="11">
-        <v>150204</v>
+        <v>187584</v>
       </c>
       <c r="I98" s="11">
-        <v>187584</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81430</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15">
-        <v>505841</v>
+        <v>345458</v>
       </c>
       <c r="F99" s="15">
-        <v>345458</v>
+        <v>358312</v>
       </c>
       <c r="G99" s="15">
-        <v>358312</v>
+        <v>339871</v>
       </c>
       <c r="H99" s="15">
-        <v>339871</v>
+        <v>337892</v>
       </c>
       <c r="I99" s="15">
-        <v>337892</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>270819</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="16" t="s">
         <v>49</v>
       </c>
@@ -2509,7 +2544,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
         <v>50</v>
       </c>
@@ -2531,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>51</v>
       </c>
@@ -2543,7 +2578,7 @@
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>24</v>
       </c>
@@ -2551,36 +2586,36 @@
         <v>32</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>14</v>
+      <c r="E103" s="11">
+        <v>9627</v>
       </c>
       <c r="F103" s="11">
-        <v>9627</v>
-      </c>
-      <c r="G103" s="11">
         <v>8022</v>
       </c>
+      <c r="G103" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>0</v>
+        <v>9627</v>
       </c>
       <c r="F104" s="15">
-        <v>9627</v>
+        <v>8022</v>
       </c>
       <c r="G104" s="15">
-        <v>8022</v>
+        <v>0</v>
       </c>
       <c r="H104" s="15">
         <v>0</v>
@@ -2589,26 +2624,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19">
-        <v>505841</v>
+        <v>355085</v>
       </c>
       <c r="F105" s="19">
-        <v>355085</v>
+        <v>366334</v>
       </c>
       <c r="G105" s="19">
-        <v>366334</v>
+        <v>339871</v>
       </c>
       <c r="H105" s="19">
-        <v>339871</v>
+        <v>337892</v>
       </c>
       <c r="I105" s="19">
-        <v>337892</v>
+        <v>270819</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/gheshahdab/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADC986B-CEAB-40FF-A862-2A16038FEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62D255-2998-4B64-92E1-2504EF6C9AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -657,16 +672,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I105"/>
+  <dimension ref="B1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -675,8 +690,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,8 +707,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -699,8 +724,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -709,8 +739,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,8 +756,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -733,8 +773,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -743,8 +788,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -765,8 +815,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -775,10 +840,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -787,200 +857,325 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>89</v>
+      </c>
+      <c r="F11" s="11">
+        <v>126</v>
+      </c>
+      <c r="G11" s="11">
+        <v>67</v>
+      </c>
+      <c r="H11" s="11">
+        <v>173</v>
+      </c>
+      <c r="I11" s="11">
+        <v>320</v>
+      </c>
+      <c r="J11" s="11">
         <v>553</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>107</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>121</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>2468</v>
+      </c>
+      <c r="F12" s="13">
+        <v>4219</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2215</v>
+      </c>
+      <c r="H12" s="13">
+        <v>4772</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5623</v>
+      </c>
+      <c r="J12" s="13">
         <v>5418</v>
       </c>
-      <c r="F12" s="13">
+      <c r="K12" s="13">
         <v>3948</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>2201</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2468</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3154</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2247</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1973</v>
+      </c>
+      <c r="J13" s="11">
         <v>2965</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>3623</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
         <v>246</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>2574</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>13</v>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+        <v>18</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13">
         <v>2217</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>2198</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>2951</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
         <v>1467</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>2611</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>3134</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>4758</v>
+      </c>
+      <c r="F18" s="15">
+        <v>6813</v>
+      </c>
+      <c r="G18" s="15">
+        <v>5436</v>
+      </c>
+      <c r="H18" s="15">
+        <v>7192</v>
+      </c>
+      <c r="I18" s="15">
+        <v>7916</v>
+      </c>
+      <c r="J18" s="15">
         <v>8936</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>7571</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>3791</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>5176</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>9051</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -989,10 +1184,15 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -1011,10 +1211,25 @@
       <c r="I20" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1023,122 +1238,202 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11">
+      <c r="E22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="11">
         <v>1250</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15">
         <v>1250</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>13</v>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
+        <v>4758</v>
+      </c>
+      <c r="F26" s="19">
+        <v>6813</v>
+      </c>
+      <c r="G26" s="19">
+        <v>5436</v>
+      </c>
+      <c r="H26" s="19">
+        <v>7192</v>
+      </c>
+      <c r="I26" s="19">
+        <v>7916</v>
+      </c>
+      <c r="J26" s="19">
         <v>10186</v>
       </c>
-      <c r="F26" s="19">
+      <c r="K26" s="19">
         <v>7571</v>
       </c>
-      <c r="G26" s="19">
+      <c r="L26" s="19">
         <v>3791</v>
       </c>
-      <c r="H26" s="19">
+      <c r="M26" s="19">
         <v>5176</v>
       </c>
-      <c r="I26" s="19">
+      <c r="N26" s="19">
         <v>9051</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1147,8 +1442,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1157,8 +1457,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1167,10 +1472,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1189,8 +1499,23 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1199,10 +1524,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1211,200 +1541,325 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
+        <v>8121</v>
+      </c>
+      <c r="F33" s="11">
+        <v>8629</v>
+      </c>
+      <c r="G33" s="11">
+        <v>5761</v>
+      </c>
+      <c r="H33" s="11">
+        <v>6330</v>
+      </c>
+      <c r="I33" s="11">
+        <v>8365</v>
+      </c>
+      <c r="J33" s="11">
         <v>16163</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11">
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11">
         <v>3751</v>
       </c>
-      <c r="H33" s="11">
+      <c r="M33" s="11">
         <v>5092</v>
       </c>
-      <c r="I33" s="11">
+      <c r="N33" s="11">
         <v>15889</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>273430</v>
+      </c>
+      <c r="F34" s="13">
+        <v>445317</v>
+      </c>
+      <c r="G34" s="13">
+        <v>275792</v>
+      </c>
+      <c r="H34" s="13">
+        <v>579677</v>
+      </c>
+      <c r="I34" s="13">
+        <v>994742</v>
+      </c>
+      <c r="J34" s="13">
         <v>1330194</v>
       </c>
-      <c r="F34" s="13">
+      <c r="K34" s="13">
         <v>1027243</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>226639</v>
+      </c>
+      <c r="F35" s="11">
+        <v>332286</v>
+      </c>
+      <c r="G35" s="11">
+        <v>491341</v>
+      </c>
+      <c r="H35" s="11">
+        <v>387390</v>
+      </c>
+      <c r="I35" s="11">
+        <v>324501</v>
+      </c>
+      <c r="J35" s="11">
         <v>506457</v>
       </c>
-      <c r="F35" s="11">
+      <c r="K35" s="11">
         <v>784004</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="13">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
         <v>59540</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>666003</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>13</v>
+      <c r="E37" s="11">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="13">
+        <v>18</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="13">
         <v>709072</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>959914</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>1256192</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="11">
+        <v>18</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="11">
         <v>516009</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>1054881</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>1094169</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
+        <v>508190</v>
+      </c>
+      <c r="F40" s="15">
+        <v>786232</v>
+      </c>
+      <c r="G40" s="15">
+        <v>772894</v>
+      </c>
+      <c r="H40" s="15">
+        <v>973397</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1327608</v>
+      </c>
+      <c r="J40" s="15">
         <v>1852814</v>
       </c>
-      <c r="F40" s="15">
+      <c r="K40" s="15">
         <v>1811247</v>
       </c>
-      <c r="G40" s="15">
+      <c r="L40" s="15">
         <v>1228832</v>
       </c>
-      <c r="H40" s="15">
+      <c r="M40" s="15">
         <v>2079427</v>
       </c>
-      <c r="I40" s="15">
+      <c r="N40" s="15">
         <v>3032253</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -1413,10 +1868,15 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -1435,10 +1895,25 @@
       <c r="I42" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="19">
+        <v>0</v>
+      </c>
+      <c r="K42" s="19">
+        <v>0</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0</v>
+      </c>
+      <c r="N42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -1447,124 +1922,204 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11">
+      <c r="E44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" s="11">
         <v>27507</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0</v>
+      </c>
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
         <v>27507</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15">
-        <v>0</v>
-      </c>
-      <c r="I45" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>13</v>
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
+        <v>508190</v>
+      </c>
+      <c r="F48" s="19">
+        <v>786232</v>
+      </c>
+      <c r="G48" s="19">
+        <v>772894</v>
+      </c>
+      <c r="H48" s="19">
+        <v>973397</v>
+      </c>
+      <c r="I48" s="19">
+        <v>1327608</v>
+      </c>
+      <c r="J48" s="19">
         <v>1880321</v>
       </c>
-      <c r="F48" s="19">
+      <c r="K48" s="19">
         <v>1811247</v>
       </c>
-      <c r="G48" s="19">
+      <c r="L48" s="19">
         <v>1228832</v>
       </c>
-      <c r="H48" s="19">
+      <c r="M48" s="19">
         <v>2079427</v>
       </c>
-      <c r="I48" s="19">
+      <c r="N48" s="19">
         <v>3032253</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1573,8 +2128,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1583,8 +2143,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1593,10 +2158,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1615,8 +2185,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1625,10 +2210,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1637,178 +2227,288 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>91247191</v>
+      </c>
+      <c r="F55" s="11">
+        <v>68484127</v>
+      </c>
+      <c r="G55" s="11">
+        <v>85985075</v>
+      </c>
+      <c r="H55" s="11">
+        <v>36589595</v>
+      </c>
+      <c r="I55" s="11">
+        <v>26140625</v>
+      </c>
+      <c r="J55" s="11">
         <v>29227848</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>32450867</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>35056075</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>42082645</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>40533163</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>110790113</v>
+      </c>
+      <c r="F56" s="13">
+        <v>105550367</v>
+      </c>
+      <c r="G56" s="13">
+        <v>124511061</v>
+      </c>
+      <c r="H56" s="13">
+        <v>121474644</v>
+      </c>
+      <c r="I56" s="13">
+        <v>176905922</v>
+      </c>
+      <c r="J56" s="13">
         <v>245513843</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>260193262</v>
       </c>
-      <c r="G56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>102970922</v>
+      </c>
+      <c r="F57" s="11">
+        <v>134637763</v>
+      </c>
+      <c r="G57" s="11">
+        <v>155783450</v>
+      </c>
+      <c r="H57" s="11">
+        <v>172403204</v>
+      </c>
+      <c r="I57" s="11">
+        <v>164470857</v>
+      </c>
+      <c r="J57" s="11">
         <v>170811804</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>216396357</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="13">
+        <v>18</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="13">
         <v>242032520</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>258742424</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="13">
+        <v>18</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="13">
         <v>319834010</v>
       </c>
-      <c r="H60" s="13">
+      <c r="M60" s="13">
         <v>436721565</v>
       </c>
-      <c r="I60" s="13">
+      <c r="N60" s="13">
         <v>425683497</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="11">
+        <v>18</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="11">
         <v>351744376</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>404014171</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>349128590</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1817,32 +2517,52 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1851,8 +2571,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1861,8 +2586,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1871,10 +2601,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1893,8 +2628,23 @@
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1903,10 +2653,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1915,200 +2670,325 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>-7995</v>
+      </c>
+      <c r="F70" s="11">
+        <v>-6748</v>
+      </c>
+      <c r="G70" s="11">
+        <v>-7452</v>
+      </c>
+      <c r="H70" s="11">
+        <v>-6050</v>
+      </c>
+      <c r="I70" s="11">
+        <v>-7883</v>
+      </c>
+      <c r="J70" s="11">
         <v>-15358</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>-3916</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>-3699</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>-5017</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>-15731</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
+        <v>-167732</v>
+      </c>
+      <c r="F71" s="13">
+        <v>-443400</v>
+      </c>
+      <c r="G71" s="13">
+        <v>-234062</v>
+      </c>
+      <c r="H71" s="13">
+        <v>-439157</v>
+      </c>
+      <c r="I71" s="13">
+        <v>-544423</v>
+      </c>
+      <c r="J71" s="13">
         <v>-1061478</v>
       </c>
-      <c r="F71" s="13">
+      <c r="K71" s="13">
         <v>-839161</v>
       </c>
-      <c r="G71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>-229724</v>
+      </c>
+      <c r="F72" s="11">
+        <v>-211794</v>
+      </c>
+      <c r="G72" s="11">
+        <v>-413848</v>
+      </c>
+      <c r="H72" s="11">
+        <v>-284241</v>
+      </c>
+      <c r="I72" s="11">
+        <v>-269461</v>
+      </c>
+      <c r="J72" s="11">
         <v>-430520</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>-615472</v>
       </c>
-      <c r="G72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="13">
-        <v>0</v>
-      </c>
-      <c r="H73" s="13">
+        <v>18</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="13">
+        <v>0</v>
+      </c>
+      <c r="M73" s="13">
         <v>-50032</v>
       </c>
-      <c r="I73" s="13">
+      <c r="N73" s="13">
         <v>-604656</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>13</v>
+      <c r="E74" s="11">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="13">
+        <v>18</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="13">
         <v>-519457</v>
       </c>
-      <c r="H75" s="13">
+      <c r="M75" s="13">
         <v>-819189</v>
       </c>
-      <c r="I75" s="13">
+      <c r="N75" s="13">
         <v>-1128308</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="11">
+        <v>18</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="11">
         <v>-365805</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>-867297</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>-1012739</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
+        <v>-405451</v>
+      </c>
+      <c r="F77" s="15">
+        <v>-661942</v>
+      </c>
+      <c r="G77" s="15">
+        <v>-655362</v>
+      </c>
+      <c r="H77" s="15">
+        <v>-729448</v>
+      </c>
+      <c r="I77" s="15">
+        <v>-821767</v>
+      </c>
+      <c r="J77" s="15">
         <v>-1507356</v>
       </c>
-      <c r="F77" s="15">
+      <c r="K77" s="15">
         <v>-1458549</v>
       </c>
-      <c r="G77" s="15">
+      <c r="L77" s="15">
         <v>-888961</v>
       </c>
-      <c r="H77" s="15">
+      <c r="M77" s="15">
         <v>-1741535</v>
       </c>
-      <c r="I77" s="15">
+      <c r="N77" s="15">
         <v>-2761434</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
@@ -2117,10 +2997,15 @@
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
@@ -2139,10 +3024,25 @@
       <c r="I79" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="19">
+        <v>0</v>
+      </c>
+      <c r="K79" s="19">
+        <v>0</v>
+      </c>
+      <c r="L79" s="19">
+        <v>0</v>
+      </c>
+      <c r="M79" s="19">
+        <v>0</v>
+      </c>
+      <c r="N79" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -2151,124 +3051,204 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11">
+      <c r="E81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="11">
         <v>-17880</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>8022</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
+        <v>0</v>
+      </c>
+      <c r="F82" s="15">
+        <v>0</v>
+      </c>
+      <c r="G82" s="15">
+        <v>0</v>
+      </c>
+      <c r="H82" s="15">
+        <v>0</v>
+      </c>
+      <c r="I82" s="15">
+        <v>0</v>
+      </c>
+      <c r="J82" s="15">
         <v>-17880</v>
       </c>
-      <c r="F82" s="15">
+      <c r="K82" s="15">
         <v>8022</v>
       </c>
-      <c r="G82" s="15">
-        <v>0</v>
-      </c>
-      <c r="H82" s="15">
-        <v>0</v>
-      </c>
-      <c r="I82" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L82" s="15">
+        <v>0</v>
+      </c>
+      <c r="M82" s="15">
+        <v>0</v>
+      </c>
+      <c r="N82" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D83" s="19"/>
-      <c r="E83" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>13</v>
+      <c r="E83" s="19">
+        <v>0</v>
+      </c>
+      <c r="F83" s="19">
+        <v>0</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D84" s="15"/>
-      <c r="E84" s="15" t="s">
-        <v>13</v>
+      <c r="E84" s="15">
+        <v>0</v>
       </c>
       <c r="F84" s="15">
         <v>0</v>
       </c>
-      <c r="G84" s="15">
-        <v>0</v>
-      </c>
-      <c r="H84" s="15">
-        <v>0</v>
+      <c r="G84" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I84" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0</v>
+      </c>
+      <c r="L84" s="15">
+        <v>0</v>
+      </c>
+      <c r="M84" s="15">
+        <v>0</v>
+      </c>
+      <c r="N84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
+        <v>-405451</v>
+      </c>
+      <c r="F85" s="19">
+        <v>-661942</v>
+      </c>
+      <c r="G85" s="19">
+        <v>-655362</v>
+      </c>
+      <c r="H85" s="19">
+        <v>-729448</v>
+      </c>
+      <c r="I85" s="19">
+        <v>-821767</v>
+      </c>
+      <c r="J85" s="19">
         <v>-1525236</v>
       </c>
-      <c r="F85" s="19">
+      <c r="K85" s="19">
         <v>-1450527</v>
       </c>
-      <c r="G85" s="19">
+      <c r="L85" s="19">
         <v>-888961</v>
       </c>
-      <c r="H85" s="19">
+      <c r="M85" s="19">
         <v>-1741535</v>
       </c>
-      <c r="I85" s="19">
+      <c r="N85" s="19">
         <v>-2761434</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2277,8 +3257,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2287,8 +3272,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2297,10 +3287,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2319,8 +3314,23 @@
       <c r="I89" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2329,10 +3339,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2341,200 +3356,325 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>126</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1881</v>
+      </c>
+      <c r="G92" s="11">
+        <v>-1691</v>
+      </c>
+      <c r="H92" s="11">
+        <v>280</v>
+      </c>
+      <c r="I92" s="11">
+        <v>482</v>
+      </c>
+      <c r="J92" s="11">
         <v>805</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>1698</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>52</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>75</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
+        <v>105698</v>
+      </c>
+      <c r="F93" s="13">
+        <v>1917</v>
+      </c>
+      <c r="G93" s="13">
+        <v>41730</v>
+      </c>
+      <c r="H93" s="13">
+        <v>140520</v>
+      </c>
+      <c r="I93" s="13">
+        <v>450319</v>
+      </c>
+      <c r="J93" s="13">
         <v>268716</v>
       </c>
-      <c r="F93" s="13">
+      <c r="K93" s="13">
         <v>188082</v>
       </c>
-      <c r="G93" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>-3085</v>
+      </c>
+      <c r="F94" s="11">
+        <v>120492</v>
+      </c>
+      <c r="G94" s="11">
+        <v>77493</v>
+      </c>
+      <c r="H94" s="11">
+        <v>103149</v>
+      </c>
+      <c r="I94" s="11">
+        <v>55040</v>
+      </c>
+      <c r="J94" s="11">
         <v>75937</v>
       </c>
-      <c r="F94" s="11">
+      <c r="K94" s="11">
         <v>168532</v>
       </c>
-      <c r="G94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="13">
-        <v>0</v>
-      </c>
-      <c r="H95" s="13">
+        <v>18</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
         <v>9508</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>61347</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>13</v>
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="13">
+        <v>18</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="13">
         <v>189615</v>
       </c>
-      <c r="H97" s="13">
+      <c r="M97" s="13">
         <v>140725</v>
       </c>
-      <c r="I97" s="13">
+      <c r="N97" s="13">
         <v>127884</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="11">
+        <v>18</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="11">
         <v>150204</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>187584</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>81430</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15">
+        <v>102739</v>
+      </c>
+      <c r="F99" s="15">
+        <v>124290</v>
+      </c>
+      <c r="G99" s="15">
+        <v>117532</v>
+      </c>
+      <c r="H99" s="15">
+        <v>243949</v>
+      </c>
+      <c r="I99" s="15">
+        <v>505841</v>
+      </c>
+      <c r="J99" s="15">
         <v>345458</v>
       </c>
-      <c r="F99" s="15">
+      <c r="K99" s="15">
         <v>358312</v>
       </c>
-      <c r="G99" s="15">
+      <c r="L99" s="15">
         <v>339871</v>
       </c>
-      <c r="H99" s="15">
+      <c r="M99" s="15">
         <v>337892</v>
       </c>
-      <c r="I99" s="15">
+      <c r="N99" s="15">
         <v>270819</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
@@ -2543,10 +3683,15 @@
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
@@ -2565,10 +3710,25 @@
       <c r="I101" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="19">
+        <v>0</v>
+      </c>
+      <c r="K101" s="19">
+        <v>0</v>
+      </c>
+      <c r="L101" s="19">
+        <v>0</v>
+      </c>
+      <c r="M101" s="19">
+        <v>0</v>
+      </c>
+      <c r="N101" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
@@ -2577,72 +3737,122 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11">
+      <c r="E103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" s="11">
         <v>9627</v>
       </c>
-      <c r="F103" s="11">
+      <c r="K103" s="11">
         <v>8022</v>
       </c>
-      <c r="G103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
+        <v>0</v>
+      </c>
+      <c r="F104" s="15">
+        <v>0</v>
+      </c>
+      <c r="G104" s="15">
+        <v>0</v>
+      </c>
+      <c r="H104" s="15">
+        <v>0</v>
+      </c>
+      <c r="I104" s="15">
+        <v>0</v>
+      </c>
+      <c r="J104" s="15">
         <v>9627</v>
       </c>
-      <c r="F104" s="15">
+      <c r="K104" s="15">
         <v>8022</v>
       </c>
-      <c r="G104" s="15">
-        <v>0</v>
-      </c>
-      <c r="H104" s="15">
-        <v>0</v>
-      </c>
-      <c r="I104" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L104" s="15">
+        <v>0</v>
+      </c>
+      <c r="M104" s="15">
+        <v>0</v>
+      </c>
+      <c r="N104" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19">
+        <v>102739</v>
+      </c>
+      <c r="F105" s="19">
+        <v>124290</v>
+      </c>
+      <c r="G105" s="19">
+        <v>117532</v>
+      </c>
+      <c r="H105" s="19">
+        <v>243949</v>
+      </c>
+      <c r="I105" s="19">
+        <v>505841</v>
+      </c>
+      <c r="J105" s="19">
         <v>355085</v>
       </c>
-      <c r="F105" s="19">
+      <c r="K105" s="19">
         <v>366334</v>
       </c>
-      <c r="G105" s="19">
+      <c r="L105" s="19">
         <v>339871</v>
       </c>
-      <c r="H105" s="19">
+      <c r="M105" s="19">
         <v>337892</v>
       </c>
-      <c r="I105" s="19">
+      <c r="N105" s="19">
         <v>270819</v>
       </c>
     </row>

--- a/database/industries/ghaza/gheshahdab/product/quarterly_seprated.xlsx
+++ b/database/industries/ghaza/gheshahdab/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D62D255-2998-4B64-92E1-2504EF6C9AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D2B0BD-482D-4232-AC34-7A8069BBA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -676,12 +676,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -696,7 +696,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -794,7 +794,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -831,7 +831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -846,7 +846,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -902,7 +902,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -941,7 +941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -980,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>9051</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="16" t="s">
         <v>26</v>
       </c>
@@ -1190,7 +1190,7 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="18" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1244,7 +1244,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>29</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>31</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>34</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>9051</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1448,7 +1448,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1463,7 +1463,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1478,7 +1478,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>35</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1530,7 +1530,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>15889</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>666003</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>23</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>1256192</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>24</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>1094169</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>3032253</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>38</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="M41" s="17"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>27</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>39</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>29</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>31</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>33</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>34</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>3032253</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2134,7 +2134,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2149,7 +2149,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2164,7 +2164,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>40</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2216,7 +2216,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>41</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>40533163</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>21</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>258742424</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>23</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>425683497</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>24</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>349128590</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>43</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>29</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2577,7 +2577,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2592,7 +2592,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2607,7 +2607,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>44</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2659,7 +2659,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>45</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>-15731</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>19</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>21</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>-604656</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>22</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>23</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>-1128308</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>24</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>-1012739</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>46</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>-2761434</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="16" t="s">
         <v>47</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="M78" s="17"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="18" t="s">
         <v>48</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>49</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>29</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>50</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>31</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>33</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>34</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>-2761434</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3263,7 +3263,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3278,7 +3278,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3293,7 +3293,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>51</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3345,7 +3345,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>52</v>
       </c>
@@ -3362,7 +3362,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>16</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>19</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>20</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>21</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>61347</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>22</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>23</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>127884</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>24</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>81430</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="14" t="s">
         <v>53</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>270819</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="16" t="s">
         <v>54</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="M100" s="17"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
         <v>55</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>56</v>
       </c>
@@ -3743,7 +3743,7 @@
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>29</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>57</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
         <v>34</v>
       </c>
